--- a/data/trans_orig/P1414-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CC9B93D-1722-4361-BC1B-4A046B51AE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{568D9503-26C3-4844-9861-9E781EE0A3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{81434B76-830D-4E64-9921-A1274E3FC398}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0044AE5F-B531-4B0B-A9B8-FB76F4FE0D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="361">
   <si>
     <t>Población con diagnóstico de fibromialgia en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -88,1063 +88,1039 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>97,64%</t>
   </si>
   <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>97,3%</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E2143C-6801-414A-BDB0-3B2368C6AE56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D64E44-0220-46AB-8E50-740C4C236068}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2458,7 +2434,7 @@
         <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2467,13 +2443,13 @@
         <v>3015</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2467,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>32</v>
@@ -2503,13 +2479,13 @@
         <v>275081</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -2518,13 +2494,13 @@
         <v>549062</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2556,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2592,13 +2568,13 @@
         <v>2083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -2607,13 +2583,13 @@
         <v>9977</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -2622,13 +2598,13 @@
         <v>12060</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,10 +2619,10 @@
         <v>660705</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>25</v>
@@ -2658,13 +2634,13 @@
         <v>683876</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>1243</v>
@@ -2673,13 +2649,13 @@
         <v>1344581</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,7 +2711,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2747,13 +2723,13 @@
         <v>2149</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -2762,13 +2738,13 @@
         <v>36301</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -2777,13 +2753,13 @@
         <v>38450</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,10 +2774,10 @@
         <v>776949</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>25</v>
@@ -2813,13 +2789,13 @@
         <v>785310</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>1437</v>
@@ -2828,13 +2804,13 @@
         <v>1562259</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2878,13 @@
         <v>7384</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="H28" s="7">
         <v>86</v>
@@ -2917,13 +2893,13 @@
         <v>92791</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7">
         <v>93</v>
@@ -2932,13 +2908,13 @@
         <v>100175</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2929,13 @@
         <v>3419395</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H29" s="7">
         <v>3209</v>
@@ -2968,28 +2944,28 @@
         <v>3461341</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M29" s="7">
         <v>6411</v>
       </c>
       <c r="N29" s="7">
-        <v>6880735</v>
+        <v>6880736</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,7 +3007,7 @@
         <v>6504</v>
       </c>
       <c r="N30" s="7">
-        <v>6980910</v>
+        <v>6980911</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -3045,7 +3021,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3069,7 +3045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFD291-3469-4685-AC46-BA7F59F8617C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E74CE47-04E5-4E36-9F2B-84356D065C5C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3086,7 +3062,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3193,13 +3169,13 @@
         <v>2028</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3208,13 +3184,13 @@
         <v>11968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3223,13 +3199,13 @@
         <v>13996</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,10 +3220,10 @@
         <v>291733</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>25</v>
@@ -3259,13 +3235,13 @@
         <v>276735</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7">
         <v>529</v>
@@ -3274,13 +3250,13 @@
         <v>568468</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,7 +3330,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3363,13 +3339,13 @@
         <v>15184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3378,13 +3354,13 @@
         <v>16263</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,7 +3378,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>25</v>
@@ -3414,13 +3390,13 @@
         <v>507900</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>944</v>
@@ -3429,13 +3405,13 @@
         <v>1009396</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3494,13 @@
         <v>4787</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3536,10 +3512,10 @@
         <v>82</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3545,13 @@
         <v>331522</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>662</v>
@@ -3584,13 +3560,13 @@
         <v>650087</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3634,13 @@
         <v>966</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3673,13 +3649,13 @@
         <v>8829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3688,13 +3664,13 @@
         <v>9795</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,10 +3685,10 @@
         <v>368998</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>25</v>
@@ -3724,13 +3700,13 @@
         <v>378454</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>703</v>
@@ -3739,13 +3715,13 @@
         <v>747452</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3789,13 @@
         <v>1936</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3828,13 +3804,13 @@
         <v>13395</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3843,13 +3819,13 @@
         <v>15330</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,10 +3840,10 @@
         <v>209285</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>25</v>
@@ -3879,13 +3855,13 @@
         <v>205192</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>420</v>
@@ -3894,13 +3870,13 @@
         <v>414478</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,7 +3950,7 @@
         <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3983,13 +3959,13 @@
         <v>6346</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3998,13 +3974,13 @@
         <v>6346</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,7 +3998,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>32</v>
@@ -4034,13 +4010,13 @@
         <v>266769</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M20" s="7">
         <v>516</v>
@@ -4049,13 +4025,13 @@
         <v>529892</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,7 +4087,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4123,13 +4099,13 @@
         <v>1194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -4138,13 +4114,13 @@
         <v>12206</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -4153,13 +4129,13 @@
         <v>13400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>223</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,10 +4150,10 @@
         <v>655364</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>224</v>
+        <v>88</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>25</v>
@@ -4189,13 +4165,13 @@
         <v>679088</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M23" s="7">
         <v>1214</v>
@@ -4204,13 +4180,13 @@
         <v>1334452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,7 +4242,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4278,13 +4254,13 @@
         <v>6845</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -4293,13 +4269,13 @@
         <v>52353</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -4308,13 +4284,13 @@
         <v>59198</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4305,13 @@
         <v>771738</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="H26" s="7">
         <v>709</v>
@@ -4344,13 +4320,13 @@
         <v>773814</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M26" s="7">
         <v>1453</v>
@@ -4359,13 +4335,13 @@
         <v>1545552</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4409,13 @@
         <v>14048</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>115</v>
@@ -4448,13 +4424,13 @@
         <v>125068</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M28" s="7">
         <v>128</v>
@@ -4463,13 +4439,13 @@
         <v>139116</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>253</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4460,13 @@
         <v>3380302</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H29" s="7">
         <v>3223</v>
@@ -4499,13 +4475,13 @@
         <v>3419474</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M29" s="7">
         <v>6441</v>
@@ -4514,13 +4490,13 @@
         <v>6799776</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,7 +4552,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4600,7 +4576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C11908-6B54-4131-B4D8-1D64190BCACF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D89E93E-58C9-4DB5-975D-D3E961E5282E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4617,7 +4593,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4724,13 +4700,13 @@
         <v>674</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -4739,13 +4715,13 @@
         <v>11780</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -4754,13 +4730,13 @@
         <v>12454</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,10 +4751,10 @@
         <v>259624</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>25</v>
@@ -4790,13 +4766,13 @@
         <v>259623</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M5" s="7">
         <v>842</v>
@@ -4805,13 +4781,13 @@
         <v>519246</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,7 +4861,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -4894,13 +4870,13 @@
         <v>21157</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -4909,13 +4885,13 @@
         <v>21157</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,7 +4909,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>32</v>
@@ -4945,13 +4921,13 @@
         <v>528428</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M8" s="7">
         <v>1059</v>
@@ -4960,13 +4936,13 @@
         <v>1046655</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5010,13 @@
         <v>929</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5052,10 +5028,10 @@
         <v>20</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -5064,13 +5040,13 @@
         <v>5911</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,10 +5061,10 @@
         <v>321311</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>282</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>291</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>25</v>
@@ -5103,10 +5079,10 @@
         <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>886</v>
@@ -5115,13 +5091,13 @@
         <v>689613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5165,13 @@
         <v>3644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5204,13 +5180,13 @@
         <v>9430</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>152</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -5219,13 +5195,13 @@
         <v>13074</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>118</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,13 +5216,13 @@
         <v>317989</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>583</v>
@@ -5255,13 +5231,13 @@
         <v>419126</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>871</v>
@@ -5270,13 +5246,13 @@
         <v>737116</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5320,13 @@
         <v>579</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>40</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -5359,13 +5335,13 @@
         <v>12546</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -5374,13 +5350,13 @@
         <v>13125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,10 +5371,10 @@
         <v>195596</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>48</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>25</v>
@@ -5410,13 +5386,13 @@
         <v>217945</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>736</v>
@@ -5425,13 +5401,13 @@
         <v>413541</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5475,13 @@
         <v>1834</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -5514,13 +5490,13 @@
         <v>9455</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>331</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -5529,13 +5505,13 @@
         <v>11289</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5526,13 @@
         <v>275389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>440</v>
@@ -5565,13 +5541,13 @@
         <v>264820</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>808</v>
@@ -5580,13 +5556,13 @@
         <v>540209</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,7 +5618,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5654,13 +5630,13 @@
         <v>4950</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>223</v>
+        <v>330</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -5669,13 +5645,13 @@
         <v>32221</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -5684,13 +5660,13 @@
         <v>37171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5681,13 @@
         <v>617722</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>228</v>
+        <v>337</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H23" s="7">
         <v>897</v>
@@ -5720,13 +5696,13 @@
         <v>767553</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="M23" s="7">
         <v>1486</v>
@@ -5735,13 +5711,13 @@
         <v>1385275</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,7 +5773,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5809,13 +5785,13 @@
         <v>2222</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>349</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -5824,13 +5800,13 @@
         <v>53010</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>76</v>
@@ -5839,13 +5815,13 @@
         <v>55232</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>207</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,10 +5836,10 @@
         <v>857206</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>354</v>
+        <v>167</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>25</v>
@@ -5875,13 +5851,13 @@
         <v>809753</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="M26" s="7">
         <v>1743</v>
@@ -5890,13 +5866,13 @@
         <v>1666959</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5940,13 @@
         <v>14831</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="H28" s="7">
         <v>256</v>
@@ -5979,13 +5955,13 @@
         <v>154582</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>361</v>
+        <v>244</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M28" s="7">
         <v>272</v>
@@ -5994,13 +5970,13 @@
         <v>169413</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>253</v>
+        <v>354</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>363</v>
+        <v>131</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>276</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +5991,13 @@
         <v>3363065</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>5079</v>
@@ -6030,13 +6006,13 @@
         <v>3635548</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="M29" s="7">
         <v>8431</v>
@@ -6045,13 +6021,13 @@
         <v>6998612</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>260</v>
+        <v>359</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>283</v>
+        <v>360</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>368</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,7 +6083,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1414-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{568D9503-26C3-4844-9861-9E781EE0A3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4147349D-32BA-4883-AB91-CF07695CA1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0044AE5F-B531-4B0B-A9B8-FB76F4FE0D4A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C40BE8D3-2121-4373-957D-BEFAFF321896}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="373">
   <si>
     <t>Población con diagnóstico de fibromialgia en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -88,16 +88,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>1,03%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>1,33%</t>
@@ -106,991 +106,1027 @@
     <t>0,71%</t>
   </si>
   <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>95,71%</t>
   </si>
   <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -1532,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D64E44-0220-46AB-8E50-740C4C236068}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9772D620-A83F-46EA-9833-DA68B868AE2D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2276,10 +2312,10 @@
         <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2288,13 +2324,13 @@
         <v>6730</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,7 +2348,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>32</v>
@@ -2324,13 +2360,13 @@
         <v>212861</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="M17" s="7">
         <v>402</v>
@@ -2339,13 +2375,13 @@
         <v>425479</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,7 +2437,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2419,7 +2455,7 @@
         <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2428,13 +2464,13 @@
         <v>3015</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2443,13 +2479,13 @@
         <v>3015</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,7 +2503,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>32</v>
@@ -2479,13 +2515,13 @@
         <v>275081</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -2494,13 +2530,13 @@
         <v>549062</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,7 +2592,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2568,13 +2604,13 @@
         <v>2083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -2583,13 +2619,13 @@
         <v>9977</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -2598,13 +2634,13 @@
         <v>12060</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,10 +2655,10 @@
         <v>660705</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>25</v>
@@ -2634,13 +2670,13 @@
         <v>683876</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M23" s="7">
         <v>1243</v>
@@ -2649,13 +2685,13 @@
         <v>1344581</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,7 +2747,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2723,13 +2759,13 @@
         <v>2149</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -2738,13 +2774,13 @@
         <v>36301</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -2753,13 +2789,13 @@
         <v>38450</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,10 +2810,10 @@
         <v>776949</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>25</v>
@@ -2789,13 +2825,13 @@
         <v>785310</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M26" s="7">
         <v>1437</v>
@@ -2804,13 +2840,13 @@
         <v>1562259</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2914,13 @@
         <v>7384</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="H28" s="7">
         <v>86</v>
@@ -2893,13 +2929,13 @@
         <v>92791</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M28" s="7">
         <v>93</v>
@@ -2908,13 +2944,13 @@
         <v>100175</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2965,13 @@
         <v>3419395</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H29" s="7">
         <v>3209</v>
@@ -2944,25 +2980,25 @@
         <v>3461341</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M29" s="7">
         <v>6411</v>
       </c>
       <c r="N29" s="7">
-        <v>6880736</v>
+        <v>6880735</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>141</v>
@@ -3007,7 +3043,7 @@
         <v>6504</v>
       </c>
       <c r="N30" s="7">
-        <v>6980911</v>
+        <v>6980910</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -3045,7 +3081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E74CE47-04E5-4E36-9F2B-84356D065C5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3787F074-F32C-45FD-A5B5-E66A98B8814E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3187,10 +3223,10 @@
         <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3199,13 +3235,13 @@
         <v>13996</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,10 +3256,10 @@
         <v>291733</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>25</v>
@@ -3235,13 +3271,13 @@
         <v>276735</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>529</v>
@@ -3250,13 +3286,13 @@
         <v>568468</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,7 +3366,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3339,13 +3375,13 @@
         <v>15184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3354,13 +3390,13 @@
         <v>16263</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,7 +3414,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>25</v>
@@ -3390,13 +3426,13 @@
         <v>507900</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>944</v>
@@ -3405,7 +3441,7 @@
         <v>1009396</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>166</v>
@@ -3500,7 +3536,7 @@
         <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3509,13 +3545,13 @@
         <v>4787</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,10 +3584,10 @@
         <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>662</v>
@@ -3560,10 +3596,10 @@
         <v>650087</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>175</v>
@@ -3634,13 +3670,13 @@
         <v>966</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3649,10 +3685,10 @@
         <v>8829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>178</v>
@@ -3664,13 +3700,13 @@
         <v>9795</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,7 +3724,7 @@
         <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>25</v>
@@ -3706,7 +3742,7 @@
         <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>703</v>
@@ -3715,13 +3751,13 @@
         <v>747452</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3825,13 @@
         <v>1936</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3804,13 +3840,13 @@
         <v>13395</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3819,13 +3855,13 @@
         <v>15330</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,10 +3876,10 @@
         <v>209285</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>25</v>
@@ -3855,13 +3891,13 @@
         <v>205192</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>420</v>
@@ -3932,7 +3968,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3959,7 +3995,7 @@
         <v>6346</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>203</v>
@@ -4010,7 +4046,7 @@
         <v>266769</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>209</v>
@@ -4087,7 +4123,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4099,13 +4135,13 @@
         <v>1194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -4114,7 +4150,7 @@
         <v>12206</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>214</v>
+        <v>53</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>215</v>
@@ -4135,7 +4171,7 @@
         <v>218</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,10 +4186,10 @@
         <v>655364</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>25</v>
@@ -4165,13 +4201,13 @@
         <v>679088</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M23" s="7">
         <v>1214</v>
@@ -4180,13 +4216,13 @@
         <v>1334452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,7 +4278,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4254,13 +4290,13 @@
         <v>6845</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -4269,13 +4305,13 @@
         <v>52353</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -4284,13 +4320,13 @@
         <v>59198</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4341,13 @@
         <v>771738</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H26" s="7">
         <v>709</v>
@@ -4320,13 +4356,13 @@
         <v>773814</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M26" s="7">
         <v>1453</v>
@@ -4335,13 +4371,13 @@
         <v>1545552</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,10 +4445,10 @@
         <v>14048</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>144</v>
@@ -4424,13 +4460,13 @@
         <v>125068</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M28" s="7">
         <v>128</v>
@@ -4439,13 +4475,13 @@
         <v>139116</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4496,13 @@
         <v>3380302</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="H29" s="7">
         <v>3223</v>
@@ -4475,13 +4511,13 @@
         <v>3419474</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M29" s="7">
         <v>6441</v>
@@ -4490,13 +4526,13 @@
         <v>6799776</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,7 +4612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D89E93E-58C9-4DB5-975D-D3E961E5282E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7A0028-14BA-4D3A-BE13-8AB4C99FB60D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4593,7 +4629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4700,13 +4736,13 @@
         <v>674</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -4715,13 +4751,13 @@
         <v>11780</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -4730,13 +4766,13 @@
         <v>12454</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,7 +4790,7 @@
         <v>175</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>25</v>
@@ -4766,13 +4802,13 @@
         <v>259623</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M5" s="7">
         <v>842</v>
@@ -4781,13 +4817,13 @@
         <v>519246</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,7 +4897,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -4870,13 +4906,13 @@
         <v>21157</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -4885,13 +4921,13 @@
         <v>21157</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,7 +4945,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>32</v>
@@ -4921,13 +4957,13 @@
         <v>528428</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M8" s="7">
         <v>1059</v>
@@ -4936,13 +4972,13 @@
         <v>1046655</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,7 +5046,7 @@
         <v>929</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
@@ -5028,10 +5064,10 @@
         <v>20</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -5040,13 +5076,13 @@
         <v>5911</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,7 +5097,7 @@
         <v>321311</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>43</v>
@@ -5079,10 +5115,10 @@
         <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c r="M11" s="7">
         <v>886</v>
@@ -5091,13 +5127,13 @@
         <v>689613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5201,13 @@
         <v>3644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5180,13 +5216,13 @@
         <v>9430</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -5195,13 +5231,13 @@
         <v>13074</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>118</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,13 +5252,13 @@
         <v>317989</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>583</v>
@@ -5231,13 +5267,13 @@
         <v>419126</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>871</v>
@@ -5246,13 +5282,13 @@
         <v>737116</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5356,13 @@
         <v>579</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -5335,13 +5371,13 @@
         <v>12546</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -5350,13 +5386,13 @@
         <v>13125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>54</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,10 +5407,10 @@
         <v>195596</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>48</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>25</v>
@@ -5386,13 +5422,13 @@
         <v>217945</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="M17" s="7">
         <v>736</v>
@@ -5401,13 +5437,13 @@
         <v>413541</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,7 +5499,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5475,13 +5511,13 @@
         <v>1834</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -5490,13 +5526,13 @@
         <v>9455</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -5505,13 +5541,13 @@
         <v>11289</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>192</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5562,13 @@
         <v>275389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="H20" s="7">
         <v>440</v>
@@ -5541,13 +5577,13 @@
         <v>264820</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>338</v>
       </c>
       <c r="M20" s="7">
         <v>808</v>
@@ -5556,13 +5592,13 @@
         <v>540209</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>201</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,7 +5654,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5630,13 +5666,13 @@
         <v>4950</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -5645,13 +5681,13 @@
         <v>32221</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>332</v>
+        <v>57</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -5660,13 +5696,13 @@
         <v>37171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5717,13 @@
         <v>617722</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H23" s="7">
         <v>897</v>
@@ -5696,13 +5732,13 @@
         <v>767553</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>340</v>
+        <v>64</v>
       </c>
       <c r="M23" s="7">
         <v>1486</v>
@@ -5711,13 +5747,13 @@
         <v>1385275</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,7 +5809,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5785,13 +5821,13 @@
         <v>2222</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -5800,13 +5836,13 @@
         <v>53010</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>76</v>
@@ -5815,13 +5851,13 @@
         <v>55232</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>207</v>
+        <v>356</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5887,13 @@
         <v>809753</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="M26" s="7">
         <v>1743</v>
@@ -5866,13 +5902,13 @@
         <v>1666959</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>212</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,10 +5976,10 @@
         <v>14831</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>39</v>
@@ -5955,13 +5991,13 @@
         <v>154582</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="M28" s="7">
         <v>272</v>
@@ -5970,13 +6006,13 @@
         <v>169413</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,7 +6027,7 @@
         <v>3363065</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>46</v>
@@ -6006,13 +6042,13 @@
         <v>3635548</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M29" s="7">
         <v>8431</v>
@@ -6021,13 +6057,13 @@
         <v>6998612</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>139</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1414-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4147349D-32BA-4883-AB91-CF07695CA1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7332FD7C-08BC-4A84-8B9E-708447FD2B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C40BE8D3-2121-4373-957D-BEFAFF321896}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{907E006A-7230-435B-999D-CCCA8749605F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="369">
   <si>
     <t>Población con diagnóstico de fibromialgia en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -94,7 +94,7 @@
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,21%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>4,19%</t>
@@ -103,7 +103,7 @@
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,71%</t>
+    <t>0,72%</t>
   </si>
   <si>
     <t>2,27%</t>
@@ -124,7 +124,7 @@
     <t>95,81%</t>
   </si>
   <si>
-    <t>98,79%</t>
+    <t>98,77%</t>
   </si>
   <si>
     <t>98,67%</t>
@@ -133,7 +133,7 @@
     <t>97,73%</t>
   </si>
   <si>
-    <t>99,29%</t>
+    <t>99,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -163,1000 +163,988 @@
     <t>0,29%</t>
   </si>
   <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>96,52%</t>
   </si>
   <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
+    <t>97,93%</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9772D620-A83F-46EA-9833-DA68B868AE2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61CFF6A-9A2D-4746-9024-80A72551B7D1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2312,10 +2300,10 @@
         <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2324,13 +2312,13 @@
         <v>6730</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,7 +2336,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>32</v>
@@ -2360,13 +2348,13 @@
         <v>212861</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>402</v>
@@ -2375,13 +2363,13 @@
         <v>425479</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,7 +2425,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2455,7 +2443,7 @@
         <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2464,13 +2452,13 @@
         <v>3015</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2479,13 +2467,13 @@
         <v>3015</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2491,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>32</v>
@@ -2515,13 +2503,13 @@
         <v>275081</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -2530,13 +2518,13 @@
         <v>549062</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,7 +2580,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2604,13 +2592,13 @@
         <v>2083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -2619,13 +2607,13 @@
         <v>9977</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -2634,13 +2622,13 @@
         <v>12060</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,10 +2643,10 @@
         <v>660705</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>25</v>
@@ -2670,13 +2658,13 @@
         <v>683876</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>1243</v>
@@ -2685,13 +2673,13 @@
         <v>1344581</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,7 +2735,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2759,13 +2747,13 @@
         <v>2149</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -2774,13 +2762,13 @@
         <v>36301</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -2789,13 +2777,13 @@
         <v>38450</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,10 +2798,10 @@
         <v>776949</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>25</v>
@@ -2825,13 +2813,13 @@
         <v>785310</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>1437</v>
@@ -2840,13 +2828,13 @@
         <v>1562259</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2902,13 @@
         <v>7384</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H28" s="7">
         <v>86</v>
@@ -2929,13 +2917,13 @@
         <v>92791</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M28" s="7">
         <v>93</v>
@@ -2944,13 +2932,13 @@
         <v>100175</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2953,13 @@
         <v>3419395</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>3209</v>
@@ -2980,13 +2968,13 @@
         <v>3461341</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>6411</v>
@@ -2995,13 +2983,13 @@
         <v>6880735</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,7 +3045,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3081,7 +3069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3787F074-F32C-45FD-A5B5-E66A98B8814E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1EA52A-A736-4F25-8F4A-D8A3F419FAB4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3098,7 +3086,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3205,13 +3193,13 @@
         <v>2028</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3220,13 +3208,13 @@
         <v>11968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3235,13 +3223,13 @@
         <v>13996</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,10 +3244,10 @@
         <v>291733</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>25</v>
@@ -3271,13 +3259,13 @@
         <v>276735</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>529</v>
@@ -3286,13 +3274,13 @@
         <v>568468</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,7 +3354,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3375,13 +3363,13 @@
         <v>15184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3390,13 +3378,13 @@
         <v>16263</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,7 +3402,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>25</v>
@@ -3426,13 +3414,13 @@
         <v>507900</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
         <v>944</v>
@@ -3441,13 +3429,13 @@
         <v>1009396</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3518,13 @@
         <v>4787</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3545,13 +3533,13 @@
         <v>4787</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3569,13 @@
         <v>331522</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="M11" s="7">
         <v>662</v>
@@ -3596,13 +3584,13 @@
         <v>650087</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3658,13 @@
         <v>966</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3685,13 +3673,13 @@
         <v>8829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3700,13 +3688,13 @@
         <v>9795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,10 +3709,10 @@
         <v>368998</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>25</v>
@@ -3736,13 +3724,13 @@
         <v>378454</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>703</v>
@@ -3751,13 +3739,13 @@
         <v>747452</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3813,13 @@
         <v>1936</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3840,13 +3828,13 @@
         <v>13395</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3855,13 +3843,13 @@
         <v>15330</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,10 +3864,10 @@
         <v>209285</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>25</v>
@@ -3891,13 +3879,13 @@
         <v>205192</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>420</v>
@@ -3906,13 +3894,13 @@
         <v>414478</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,7 +3956,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3986,7 +3974,7 @@
         <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3995,13 +3983,13 @@
         <v>6346</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -4010,13 +3998,13 @@
         <v>6346</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,7 +4022,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>32</v>
@@ -4046,13 +4034,13 @@
         <v>266769</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>516</v>
@@ -4061,13 +4049,13 @@
         <v>529892</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,7 +4111,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4135,13 +4123,13 @@
         <v>1194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -4150,13 +4138,13 @@
         <v>12206</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -4165,13 +4153,13 @@
         <v>13400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,10 +4174,10 @@
         <v>655364</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>25</v>
@@ -4201,13 +4189,13 @@
         <v>679088</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M23" s="7">
         <v>1214</v>
@@ -4216,13 +4204,13 @@
         <v>1334452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,7 +4266,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4290,13 +4278,13 @@
         <v>6845</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -4305,13 +4293,13 @@
         <v>52353</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -4320,13 +4308,13 @@
         <v>59198</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4329,13 @@
         <v>771738</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>709</v>
@@ -4356,13 +4344,13 @@
         <v>773814</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M26" s="7">
         <v>1453</v>
@@ -4371,13 +4359,13 @@
         <v>1545552</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4433,13 @@
         <v>14048</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>115</v>
@@ -4460,13 +4448,13 @@
         <v>125068</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M28" s="7">
         <v>128</v>
@@ -4475,13 +4463,13 @@
         <v>139116</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4484,13 @@
         <v>3380302</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="H29" s="7">
         <v>3223</v>
@@ -4511,13 +4499,13 @@
         <v>3419474</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M29" s="7">
         <v>6441</v>
@@ -4526,13 +4514,13 @@
         <v>6799776</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,7 +4576,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4612,7 +4600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7A0028-14BA-4D3A-BE13-8AB4C99FB60D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1975FA1F-1401-474C-80C3-7C0FC60B0BF6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4629,7 +4617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4736,13 +4724,13 @@
         <v>674</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -4751,13 +4739,13 @@
         <v>11780</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -4766,13 +4754,13 @@
         <v>12454</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>264</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>38</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,10 +4775,10 @@
         <v>259624</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>25</v>
@@ -4802,13 +4790,13 @@
         <v>259623</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M5" s="7">
         <v>842</v>
@@ -4817,13 +4805,13 @@
         <v>519246</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,7 +4885,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>271</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -4906,13 +4894,13 @@
         <v>21157</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -4921,13 +4909,13 @@
         <v>21157</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,7 +4933,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>32</v>
@@ -4957,13 +4945,13 @@
         <v>528428</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M8" s="7">
         <v>1059</v>
@@ -4972,13 +4960,13 @@
         <v>1046655</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,7 +5040,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5064,10 +5052,10 @@
         <v>20</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -5076,13 +5064,13 @@
         <v>5911</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,7 +5088,7 @@
         <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>291</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>25</v>
@@ -5115,10 +5103,10 @@
         <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M11" s="7">
         <v>886</v>
@@ -5127,13 +5115,13 @@
         <v>689613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,13 +5189,13 @@
         <v>3644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5216,13 +5204,13 @@
         <v>9430</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -5231,13 +5219,13 @@
         <v>13074</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,13 +5240,13 @@
         <v>317989</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>583</v>
@@ -5267,13 +5255,13 @@
         <v>419126</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
         <v>871</v>
@@ -5282,13 +5270,13 @@
         <v>737116</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5344,13 @@
         <v>579</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -5371,13 +5359,13 @@
         <v>12546</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -5386,13 +5374,13 @@
         <v>13125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,10 +5395,10 @@
         <v>195596</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>25</v>
@@ -5422,13 +5410,13 @@
         <v>217945</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>736</v>
@@ -5437,13 +5425,13 @@
         <v>413541</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,7 +5487,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5511,13 +5499,13 @@
         <v>1834</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -5526,13 +5514,13 @@
         <v>9455</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -5541,13 +5529,13 @@
         <v>11289</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5550,13 @@
         <v>275389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H20" s="7">
         <v>440</v>
@@ -5577,10 +5565,10 @@
         <v>264820</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>338</v>
@@ -5592,13 +5580,13 @@
         <v>540209</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>339</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>340</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,7 +5642,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5669,10 +5657,10 @@
         <v>341</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>342</v>
+        <v>223</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -5681,13 +5669,13 @@
         <v>32221</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -5696,13 +5684,13 @@
         <v>37171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>345</v>
+        <v>196</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5705,13 @@
         <v>617722</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>348</v>
+        <v>228</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="H23" s="7">
         <v>897</v>
@@ -5732,13 +5720,13 @@
         <v>767553</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>64</v>
+        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>1486</v>
@@ -5747,13 +5735,13 @@
         <v>1385275</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>352</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,7 +5797,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5821,13 +5809,13 @@
         <v>2222</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -5836,13 +5824,13 @@
         <v>53010</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M25" s="7">
         <v>76</v>
@@ -5851,13 +5839,13 @@
         <v>55232</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,10 +5860,10 @@
         <v>857206</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>25</v>
@@ -5887,13 +5875,13 @@
         <v>809753</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>1743</v>
@@ -5902,13 +5890,13 @@
         <v>1666959</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,13 +5964,13 @@
         <v>14831</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="H28" s="7">
         <v>256</v>
@@ -5991,13 +5979,13 @@
         <v>154582</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>245</v>
+        <v>361</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M28" s="7">
         <v>272</v>
@@ -6006,13 +5994,13 @@
         <v>169413</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>366</v>
+        <v>253</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>367</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6015,13 @@
         <v>3363065</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H29" s="7">
         <v>5079</v>
@@ -6042,13 +6030,13 @@
         <v>3635548</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>252</v>
+        <v>367</v>
       </c>
       <c r="M29" s="7">
         <v>8431</v>
@@ -6057,13 +6045,13 @@
         <v>6998612</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>371</v>
+        <v>260</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>372</v>
+        <v>283</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,7 +6107,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1414-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7332FD7C-08BC-4A84-8B9E-708447FD2B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C26A208-BC8C-44BA-9E41-61D913606CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{907E006A-7230-435B-999D-CCCA8749605F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{58077732-0304-4F42-8856-5B05027EFB4F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="364">
   <si>
     <t>Población con diagnóstico de fibromialgia en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -73,21 +73,72 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,03%</t>
   </si>
   <si>
@@ -115,9 +166,6 @@
     <t>98,97%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>97,58%</t>
   </si>
   <si>
@@ -136,9 +184,6 @@
     <t>99,28%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -190,52 +235,46 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -304,9 +343,6 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
     <t>99,27%</t>
   </si>
   <si>
@@ -322,18 +358,12 @@
     <t>99,45%</t>
   </si>
   <si>
-    <t>98,45%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
     <t>1,09%</t>
   </si>
   <si>
@@ -355,9 +385,6 @@
     <t>1,62%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
     <t>98,91%</t>
   </si>
   <si>
@@ -574,9 +601,6 @@
     <t>99,74%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
     <t>2,28%</t>
   </si>
   <si>
@@ -592,9 +616,6 @@
     <t>2,26%</t>
   </si>
   <si>
-    <t>98,68%</t>
-  </si>
-  <si>
     <t>97,72%</t>
   </si>
   <si>
@@ -829,79 +850,58 @@
     <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>0,64%</t>
@@ -910,10 +910,10 @@
     <t>2,54%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
   </si>
   <si>
     <t>97,46%</t>
@@ -922,229 +922,214 @@
     <t>99,36%</t>
   </si>
   <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61CFF6A-9A2D-4746-9024-80A72551B7D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2A5B36-ADC5-4D58-948A-9BF04C4524BF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1674,88 +1659,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>966</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8220</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9186</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="D5" s="7">
+        <v>293772</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>248</v>
+      </c>
+      <c r="I5" s="7">
+        <v>279025</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>529</v>
+      </c>
+      <c r="N5" s="7">
+        <v>572797</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,48 +1761,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1817,13 +1820,13 @@
         <v>1041</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -1832,13 +1835,13 @@
         <v>12672</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -1847,19 +1850,19 @@
         <v>13713</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>471</v>
@@ -1868,13 +1871,13 @@
         <v>504486</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>469</v>
@@ -1883,13 +1886,13 @@
         <v>511093</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>940</v>
@@ -1898,13 +1901,13 @@
         <v>1015579</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1922,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -1934,13 +1937,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -1949,18 +1952,18 @@
         <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1972,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -1987,13 +1990,13 @@
         <v>4959</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2002,19 +2005,19 @@
         <v>4959</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>319</v>
@@ -2023,13 +2026,13 @@
         <v>324046</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>312</v>
@@ -2038,13 +2041,13 @@
         <v>336061</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>631</v>
@@ -2053,13 +2056,13 @@
         <v>660107</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,13 +2077,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2089,13 +2092,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -2104,117 +2107,117 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>2111</v>
+        <v>1145</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>19136</v>
+        <v>10917</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>21247</v>
+        <v>12062</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>624</v>
+        <v>343</v>
       </c>
       <c r="D14" s="7">
-        <v>666609</v>
+        <v>372837</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>608</v>
+        <v>360</v>
       </c>
       <c r="I14" s="7">
-        <v>657060</v>
+        <v>378034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>1232</v>
+        <v>703</v>
       </c>
       <c r="N14" s="7">
-        <v>1323669</v>
+        <v>750871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,54 +2226,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2282,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2297,13 +2300,13 @@
         <v>6730</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2312,19 +2315,19 @@
         <v>6730</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>196</v>
@@ -2333,13 +2336,13 @@
         <v>212618</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17" s="7">
         <v>206</v>
@@ -2348,13 +2351,13 @@
         <v>212861</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>402</v>
@@ -2363,13 +2366,13 @@
         <v>425479</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2387,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2399,13 +2402,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -2414,18 +2417,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2437,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2452,13 +2455,13 @@
         <v>3015</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2467,19 +2470,19 @@
         <v>3015</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>261</v>
@@ -2488,13 +2491,13 @@
         <v>273981</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -2503,13 +2506,13 @@
         <v>275081</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -2518,13 +2521,13 @@
         <v>549062</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2542,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2554,13 +2557,13 @@
         <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2569,18 +2572,18 @@
         <v>552077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2592,13 +2595,13 @@
         <v>2083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -2607,13 +2610,13 @@
         <v>9977</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -2622,19 +2625,19 @@
         <v>12060</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>616</v>
@@ -2643,13 +2646,13 @@
         <v>660705</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H23" s="7">
         <v>627</v>
@@ -2658,13 +2661,13 @@
         <v>683876</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>1243</v>
@@ -2673,13 +2676,13 @@
         <v>1344581</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2697,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -2709,13 +2712,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -2724,18 +2727,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2747,13 +2750,13 @@
         <v>2149</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -2762,13 +2765,13 @@
         <v>36301</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -2777,19 +2780,19 @@
         <v>38450</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>715</v>
@@ -2798,13 +2801,13 @@
         <v>776949</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H26" s="7">
         <v>722</v>
@@ -2813,13 +2816,13 @@
         <v>785310</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>1437</v>
@@ -2828,13 +2831,13 @@
         <v>1562259</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,13 +2852,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -2864,13 +2867,13 @@
         <v>821611</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1472</v>
@@ -2879,13 +2882,13 @@
         <v>1600709</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2905,13 @@
         <v>7384</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>86</v>
@@ -2917,13 +2920,13 @@
         <v>92791</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>93</v>
@@ -2932,19 +2935,19 @@
         <v>100175</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3202</v>
@@ -2953,13 +2956,13 @@
         <v>3419395</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H29" s="7">
         <v>3209</v>
@@ -2968,28 +2971,28 @@
         <v>3461341</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M29" s="7">
         <v>6411</v>
       </c>
       <c r="N29" s="7">
-        <v>6880735</v>
+        <v>6880736</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3007,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3295</v>
@@ -3019,33 +3022,33 @@
         <v>3554132</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6504</v>
       </c>
       <c r="N30" s="7">
-        <v>6980910</v>
+        <v>6980911</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3069,7 +3072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1EA52A-A736-4F25-8F4A-D8A3F419FAB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980E283A-A3EC-4101-A6B3-25BD723973EF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3086,7 +3089,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3193,13 +3196,13 @@
         <v>2028</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3208,13 +3211,13 @@
         <v>11968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3223,19 +3226,19 @@
         <v>13996</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>264</v>
@@ -3244,13 +3247,13 @@
         <v>291733</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>265</v>
@@ -3259,13 +3262,13 @@
         <v>276735</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>529</v>
@@ -3274,13 +3277,13 @@
         <v>568468</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3298,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -3310,13 +3313,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -3325,18 +3328,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3348,13 +3351,13 @@
         <v>1079</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3363,13 +3366,13 @@
         <v>15184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3378,19 +3381,19 @@
         <v>16263</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>474</v>
@@ -3399,13 +3402,13 @@
         <v>501496</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>470</v>
@@ -3414,13 +3417,13 @@
         <v>507900</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>944</v>
@@ -3429,13 +3432,13 @@
         <v>1009396</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3453,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -3465,13 +3468,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -3480,18 +3483,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3503,13 +3506,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3518,13 +3521,13 @@
         <v>4787</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3533,19 +3536,19 @@
         <v>4787</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>335</v>
@@ -3554,13 +3557,13 @@
         <v>318565</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>327</v>
@@ -3569,13 +3572,13 @@
         <v>331522</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M11" s="7">
         <v>662</v>
@@ -3584,13 +3587,13 @@
         <v>650087</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3608,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -3620,13 +3623,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -3635,18 +3638,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3658,13 +3661,13 @@
         <v>966</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3673,13 +3676,13 @@
         <v>8829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3688,19 +3691,19 @@
         <v>9795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>353</v>
@@ -3709,13 +3712,13 @@
         <v>368998</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>350</v>
@@ -3724,13 +3727,13 @@
         <v>378454</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>703</v>
@@ -3739,13 +3742,13 @@
         <v>747452</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,13 +3763,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -3775,13 +3778,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -3790,18 +3793,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3813,13 +3816,13 @@
         <v>1936</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3828,13 +3831,13 @@
         <v>13395</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3843,19 +3846,19 @@
         <v>15330</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>210</v>
@@ -3864,13 +3867,13 @@
         <v>209285</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
         <v>210</v>
@@ -3879,13 +3882,13 @@
         <v>205192</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>420</v>
@@ -3894,13 +3897,13 @@
         <v>414478</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,13 +3918,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -3930,13 +3933,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -3945,18 +3948,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3968,13 +3971,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3983,13 +3986,13 @@
         <v>6346</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3998,19 +4001,19 @@
         <v>6346</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>259</v>
@@ -4019,13 +4022,13 @@
         <v>263123</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7">
         <v>257</v>
@@ -4034,13 +4037,13 @@
         <v>266769</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>516</v>
@@ -4049,13 +4052,13 @@
         <v>529892</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4073,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -4085,13 +4088,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -4100,18 +4103,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4123,13 +4126,13 @@
         <v>1194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -4138,13 +4141,13 @@
         <v>12206</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -4153,19 +4156,19 @@
         <v>13400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>579</v>
@@ -4174,13 +4177,13 @@
         <v>655364</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H23" s="7">
         <v>635</v>
@@ -4189,13 +4192,13 @@
         <v>679088</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="M23" s="7">
         <v>1214</v>
@@ -4204,13 +4207,13 @@
         <v>1334452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4228,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -4240,13 +4243,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -4255,18 +4258,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4278,13 +4281,13 @@
         <v>6845</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -4293,13 +4296,13 @@
         <v>52353</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -4308,19 +4311,19 @@
         <v>59198</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>744</v>
@@ -4329,13 +4332,13 @@
         <v>771738</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>709</v>
@@ -4344,13 +4347,13 @@
         <v>773814</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M26" s="7">
         <v>1453</v>
@@ -4359,13 +4362,13 @@
         <v>1545552</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4383,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -4395,13 +4398,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -4410,13 +4413,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4436,13 @@
         <v>14048</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>115</v>
@@ -4448,13 +4451,13 @@
         <v>125068</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M28" s="7">
         <v>128</v>
@@ -4463,19 +4466,19 @@
         <v>139116</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3218</v>
@@ -4484,13 +4487,13 @@
         <v>3380302</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H29" s="7">
         <v>3223</v>
@@ -4499,13 +4502,13 @@
         <v>3419474</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M29" s="7">
         <v>6441</v>
@@ -4514,13 +4517,13 @@
         <v>6799776</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4538,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -4550,13 +4553,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -4565,18 +4568,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4600,7 +4603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1975FA1F-1401-474C-80C3-7C0FC60B0BF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C7AF27-945A-4202-96A5-7C12462067F8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4617,7 +4620,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4721,97 +4724,97 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>674</v>
+        <v>725</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>11780</v>
+        <v>12138</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>36</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>12454</v>
+        <v>12863</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>71</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>268</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>330</v>
       </c>
       <c r="D5" s="7">
-        <v>259624</v>
+        <v>310718</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>512</v>
       </c>
       <c r="I5" s="7">
-        <v>259623</v>
+        <v>277497</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="M5" s="7">
         <v>842</v>
       </c>
       <c r="N5" s="7">
-        <v>519246</v>
+        <v>588214</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>274</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>78</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,51 +4826,51 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4879,94 +4882,94 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
       </c>
       <c r="I7" s="7">
-        <v>21157</v>
+        <v>19627</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
       </c>
       <c r="N7" s="7">
-        <v>21157</v>
+        <v>19627</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>381</v>
       </c>
       <c r="D8" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>678</v>
       </c>
       <c r="I8" s="7">
-        <v>528428</v>
+        <v>490676</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M8" s="7">
         <v>1059</v>
       </c>
       <c r="N8" s="7">
-        <v>1046655</v>
+        <v>1008068</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,51 +4981,51 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>709</v>
       </c>
       <c r="I9" s="7">
-        <v>549585</v>
+        <v>510303</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1090</v>
       </c>
       <c r="N9" s="7">
-        <v>1067812</v>
+        <v>1027695</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5031,25 +5034,25 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>929</v>
+        <v>894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>287</v>
+        <v>84</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>4982</v>
+        <v>4682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>288</v>
@@ -5061,46 +5064,46 @@
         <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>5911</v>
+        <v>5577</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>359</v>
       </c>
       <c r="D11" s="7">
-        <v>321311</v>
+        <v>315156</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>291</v>
+        <v>91</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
         <v>527</v>
       </c>
       <c r="I11" s="7">
-        <v>368302</v>
+        <v>344446</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>292</v>
@@ -5112,16 +5115,16 @@
         <v>886</v>
       </c>
       <c r="N11" s="7">
-        <v>689613</v>
+        <v>659601</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>294</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,51 +5136,51 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5186,10 +5189,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>3644</v>
+        <v>3624</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>296</v>
@@ -5201,13 +5204,13 @@
         <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>9430</v>
+        <v>8677</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>299</v>
@@ -5216,67 +5219,67 @@
         <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>13074</v>
+        <v>12301</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>288</v>
       </c>
       <c r="D14" s="7">
-        <v>317989</v>
+        <v>308351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>583</v>
       </c>
       <c r="I14" s="7">
-        <v>419126</v>
+        <v>467041</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="M14" s="7">
         <v>871</v>
       </c>
       <c r="N14" s="7">
-        <v>737116</v>
+        <v>775392</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,51 +5291,51 @@
         <v>291</v>
       </c>
       <c r="D15" s="7">
-        <v>321633</v>
+        <v>311975</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750190</v>
+        <v>787693</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5341,97 +5344,97 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>579</v>
+        <v>513</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>12546</v>
+        <v>11459</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
       </c>
       <c r="N16" s="7">
-        <v>13125</v>
+        <v>11972</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>277</v>
       </c>
       <c r="D17" s="7">
-        <v>195596</v>
+        <v>177708</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
         <v>459</v>
       </c>
       <c r="I17" s="7">
-        <v>217945</v>
+        <v>195903</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>736</v>
       </c>
       <c r="N17" s="7">
-        <v>413541</v>
+        <v>373611</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,51 +5446,51 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>196175</v>
+        <v>178221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>489</v>
       </c>
       <c r="I18" s="7">
-        <v>230491</v>
+        <v>207362</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>767</v>
       </c>
       <c r="N18" s="7">
-        <v>426666</v>
+        <v>385583</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5496,97 +5499,97 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>1834</v>
+        <v>1755</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
       </c>
       <c r="I19" s="7">
-        <v>9455</v>
+        <v>8805</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
       </c>
       <c r="N19" s="7">
-        <v>11289</v>
+        <v>10560</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>263</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>333</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>368</v>
       </c>
       <c r="D20" s="7">
-        <v>275389</v>
+        <v>267881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>440</v>
       </c>
       <c r="I20" s="7">
-        <v>264820</v>
+        <v>247003</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>808</v>
       </c>
       <c r="N20" s="7">
-        <v>540209</v>
+        <v>514884</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>340</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,51 +5601,51 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>458</v>
       </c>
       <c r="I21" s="7">
-        <v>274275</v>
+        <v>255808</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>829</v>
       </c>
       <c r="N21" s="7">
-        <v>551498</v>
+        <v>525444</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5651,97 +5654,97 @@
         <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>4950</v>
+        <v>4815</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>223</v>
+        <v>56</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
       </c>
       <c r="I22" s="7">
-        <v>32221</v>
+        <v>29912</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>289</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
       </c>
       <c r="N22" s="7">
-        <v>37171</v>
+        <v>34727</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>336</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>196</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>589</v>
       </c>
       <c r="D23" s="7">
-        <v>617722</v>
+        <v>614688</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>122</v>
+        <v>339</v>
       </c>
       <c r="H23" s="7">
         <v>897</v>
       </c>
       <c r="I23" s="7">
-        <v>767553</v>
+        <v>815208</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>1486</v>
       </c>
       <c r="N23" s="7">
-        <v>1385275</v>
+        <v>1429895</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>342</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>205</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,51 +5756,51 @@
         <v>594</v>
       </c>
       <c r="D24" s="7">
-        <v>622672</v>
+        <v>619503</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>949</v>
       </c>
       <c r="I24" s="7">
-        <v>799774</v>
+        <v>845120</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1543</v>
       </c>
       <c r="N24" s="7">
-        <v>1422446</v>
+        <v>1464622</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5806,97 +5809,97 @@
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>2222</v>
+        <v>1977</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>349</v>
+        <v>18</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
       </c>
       <c r="I25" s="7">
-        <v>53010</v>
+        <v>44311</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>266</v>
+        <v>344</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>76</v>
       </c>
       <c r="N25" s="7">
-        <v>55232</v>
+        <v>46288</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>191</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>760</v>
       </c>
       <c r="D26" s="7">
-        <v>857206</v>
+        <v>926743</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>354</v>
+        <v>29</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H26" s="7">
         <v>983</v>
       </c>
       <c r="I26" s="7">
-        <v>809753</v>
+        <v>668592</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>271</v>
+        <v>349</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M26" s="7">
         <v>1743</v>
       </c>
       <c r="N26" s="7">
-        <v>1666959</v>
+        <v>1595335</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>199</v>
+        <v>352</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,46 +5911,46 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>1057</v>
       </c>
       <c r="I27" s="7">
-        <v>862763</v>
+        <v>712903</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1819</v>
       </c>
       <c r="N27" s="7">
-        <v>1722191</v>
+        <v>1641623</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,97 +5964,97 @@
         <v>16</v>
       </c>
       <c r="D28" s="7">
-        <v>14831</v>
+        <v>14305</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>359</v>
+        <v>253</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>82</v>
+        <v>354</v>
       </c>
       <c r="H28" s="7">
         <v>256</v>
       </c>
       <c r="I28" s="7">
-        <v>154582</v>
+        <v>139611</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M28" s="7">
         <v>272</v>
       </c>
       <c r="N28" s="7">
-        <v>169413</v>
+        <v>153915</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>253</v>
+        <v>357</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3352</v>
       </c>
       <c r="D29" s="7">
-        <v>3363065</v>
+        <v>3438636</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>89</v>
+        <v>359</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="H29" s="7">
         <v>5079</v>
       </c>
       <c r="I29" s="7">
-        <v>3635548</v>
+        <v>3506364</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>367</v>
+        <v>88</v>
       </c>
       <c r="M29" s="7">
         <v>8431</v>
       </c>
       <c r="N29" s="7">
-        <v>6998612</v>
+        <v>6945001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>260</v>
+        <v>362</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>368</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,51 +6066,51 @@
         <v>3368</v>
       </c>
       <c r="D30" s="7">
-        <v>3377896</v>
+        <v>3452941</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>5335</v>
       </c>
       <c r="I30" s="7">
-        <v>3790130</v>
+        <v>3645975</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>8703</v>
       </c>
       <c r="N30" s="7">
-        <v>7168025</v>
+        <v>7098916</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
